--- a/Cleaned-Data/2017-Passouts/Sem-3_2017_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2017-Passouts/Sem-3_2017_Passout_cleaned.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="227">
   <si>
     <t>M3-TH</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>DLDA-IA</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>P/F</t>
@@ -1080,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1115,13 +1112,13 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1130,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1145,22 +1142,22 @@
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
@@ -1169,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>8</v>
@@ -1181,18 +1178,18 @@
         <v>9</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
         <v>11</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -1261,7 +1258,7 @@
         <v>23</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y2">
         <v>9.2899999999999991</v>
@@ -1269,7 +1266,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1338,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y3">
         <v>7.11</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1415,15 +1412,15 @@
         <v>21</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -1492,15 +1489,15 @@
         <v>24</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -1569,15 +1566,15 @@
         <v>19</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1646,7 +1643,7 @@
         <v>21</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y7">
         <v>8.57</v>
@@ -1654,7 +1651,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -1723,7 +1720,7 @@
         <v>21</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y8">
         <v>6.57</v>
@@ -1731,7 +1728,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -1800,15 +1797,15 @@
         <v>18</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -1877,15 +1874,15 @@
         <v>21</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -1954,7 +1951,7 @@
         <v>22</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11">
         <v>9.14</v>
@@ -1962,7 +1959,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -2031,15 +2028,15 @@
         <v>20</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -2108,7 +2105,7 @@
         <v>23</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13">
         <v>9.14</v>
@@ -2116,7 +2113,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -2185,7 +2182,7 @@
         <v>24</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y14">
         <v>9.7100000000000009</v>
@@ -2193,7 +2190,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -2262,7 +2259,7 @@
         <v>21</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y15">
         <v>7.43</v>
@@ -2270,7 +2267,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -2339,15 +2336,15 @@
         <v>18</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -2416,7 +2413,7 @@
         <v>21</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y17">
         <v>9.14</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -2493,15 +2490,15 @@
         <v>22</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -2570,15 +2567,15 @@
         <v>19</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -2647,15 +2644,15 @@
         <v>18</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -2724,15 +2721,15 @@
         <v>22</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -2801,7 +2798,7 @@
         <v>18</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y22">
         <v>6.07</v>
@@ -2809,7 +2806,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -2878,15 +2875,15 @@
         <v>20</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -2955,7 +2952,7 @@
         <v>20</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y24">
         <v>7.29</v>
@@ -2963,7 +2960,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -3032,7 +3029,7 @@
         <v>22</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y25">
         <v>6.36</v>
@@ -3040,7 +3037,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -3109,7 +3106,7 @@
         <v>21</v>
       </c>
       <c r="X26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y26">
         <v>6.36</v>
@@ -3117,7 +3114,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -3186,15 +3183,15 @@
         <v>20</v>
       </c>
       <c r="X27" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -3263,7 +3260,7 @@
         <v>22</v>
       </c>
       <c r="X28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y28">
         <v>8.86</v>
@@ -3271,7 +3268,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -3340,15 +3337,15 @@
         <v>20</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -3417,7 +3414,7 @@
         <v>22</v>
       </c>
       <c r="X30" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y30">
         <v>7.14</v>
@@ -3425,7 +3422,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -3494,7 +3491,7 @@
         <v>24</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y31">
         <v>7.07</v>
@@ -3502,7 +3499,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -3571,7 +3568,7 @@
         <v>21</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y32">
         <v>6.82</v>
@@ -3579,7 +3576,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -3648,15 +3645,15 @@
         <v>23</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -3725,7 +3722,7 @@
         <v>24</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y34">
         <v>8.07</v>
@@ -3733,7 +3730,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -3802,7 +3799,7 @@
         <v>23</v>
       </c>
       <c r="X35" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y35">
         <v>7.5</v>
@@ -3810,7 +3807,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -3879,7 +3876,7 @@
         <v>22</v>
       </c>
       <c r="X36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y36">
         <v>5.96</v>
@@ -3887,7 +3884,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -3956,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="X37" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y37">
         <v>6.46</v>
@@ -3964,7 +3961,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -4033,15 +4030,15 @@
         <v>22</v>
       </c>
       <c r="X38" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -4110,7 +4107,7 @@
         <v>20</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y39">
         <v>7.54</v>
@@ -4118,7 +4115,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
@@ -4187,15 +4184,15 @@
         <v>18</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -4264,7 +4261,7 @@
         <v>20</v>
       </c>
       <c r="X41" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y41">
         <v>5.61</v>
@@ -4272,7 +4269,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -4341,7 +4338,7 @@
         <v>23</v>
       </c>
       <c r="X42" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y42">
         <v>7.75</v>
@@ -4349,7 +4346,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -4418,15 +4415,15 @@
         <v>19</v>
       </c>
       <c r="X43" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -4495,7 +4492,7 @@
         <v>18</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y44">
         <v>6.68</v>
@@ -4503,7 +4500,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -4572,7 +4569,7 @@
         <v>21</v>
       </c>
       <c r="X45" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y45">
         <v>6.64</v>
@@ -4580,7 +4577,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -4649,7 +4646,7 @@
         <v>22</v>
       </c>
       <c r="X46" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y46">
         <v>7.96</v>
@@ -4657,7 +4654,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -4726,15 +4723,15 @@
         <v>21</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -4803,15 +4800,15 @@
         <v>20</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
@@ -4880,15 +4877,15 @@
         <v>20</v>
       </c>
       <c r="X49" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
@@ -4957,7 +4954,7 @@
         <v>23</v>
       </c>
       <c r="X50" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y50">
         <v>6.96</v>
@@ -4965,7 +4962,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
@@ -5034,15 +5031,15 @@
         <v>21</v>
       </c>
       <c r="X51" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -5111,7 +5108,7 @@
         <v>23</v>
       </c>
       <c r="X52" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y52">
         <v>8.14</v>
@@ -5119,7 +5116,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
@@ -5188,7 +5185,7 @@
         <v>23</v>
       </c>
       <c r="X53" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y53">
         <v>7.57</v>
@@ -5196,7 +5193,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
@@ -5265,7 +5262,7 @@
         <v>20</v>
       </c>
       <c r="X54" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y54">
         <v>7.25</v>
@@ -5273,7 +5270,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -5342,7 +5339,7 @@
         <v>22</v>
       </c>
       <c r="X55" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y55">
         <v>6.21</v>
@@ -5350,7 +5347,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -5419,15 +5416,15 @@
         <v>18</v>
       </c>
       <c r="X56" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
@@ -5496,7 +5493,7 @@
         <v>22</v>
       </c>
       <c r="X57" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y57">
         <v>6.86</v>
@@ -5504,7 +5501,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
@@ -5573,7 +5570,7 @@
         <v>21</v>
       </c>
       <c r="X58" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y58">
         <v>8.18</v>
@@ -5581,7 +5578,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
@@ -5650,15 +5647,15 @@
         <v>20</v>
       </c>
       <c r="X59" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
@@ -5727,7 +5724,7 @@
         <v>22</v>
       </c>
       <c r="X60" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y60">
         <v>8.5</v>
@@ -5735,7 +5732,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -5804,7 +5801,7 @@
         <v>20</v>
       </c>
       <c r="X61" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y61">
         <v>6.86</v>
@@ -5812,7 +5809,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
@@ -5881,7 +5878,7 @@
         <v>21</v>
       </c>
       <c r="X62" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y62">
         <v>7.79</v>
@@ -5889,7 +5886,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
@@ -5958,15 +5955,15 @@
         <v>20</v>
       </c>
       <c r="X63" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -6035,15 +6032,15 @@
         <v>20</v>
       </c>
       <c r="X64" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="4">
         <v>0</v>
@@ -6112,15 +6109,15 @@
         <v>19</v>
       </c>
       <c r="X65" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
@@ -6189,7 +6186,7 @@
         <v>22</v>
       </c>
       <c r="X66" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y66">
         <v>6.57</v>
@@ -6197,7 +6194,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="4">
         <v>0</v>
@@ -6266,7 +6263,7 @@
         <v>22</v>
       </c>
       <c r="X67" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y67">
         <v>7.25</v>
@@ -6274,7 +6271,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
@@ -6343,15 +6340,15 @@
         <v>20</v>
       </c>
       <c r="X68" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
@@ -6420,15 +6417,15 @@
         <v>21</v>
       </c>
       <c r="X69" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
@@ -6497,15 +6494,15 @@
         <v>22</v>
       </c>
       <c r="X70" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -6574,7 +6571,7 @@
         <v>22</v>
       </c>
       <c r="X71" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y71">
         <v>8.14</v>
@@ -6582,7 +6579,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
@@ -6651,15 +6648,15 @@
         <v>20</v>
       </c>
       <c r="X72" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -6728,7 +6725,7 @@
         <v>21</v>
       </c>
       <c r="X73" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y73">
         <v>6.71</v>
@@ -6736,7 +6733,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
@@ -6805,15 +6802,15 @@
         <v>20</v>
       </c>
       <c r="X74" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
@@ -6882,15 +6879,15 @@
         <v>22</v>
       </c>
       <c r="X75" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
@@ -6959,7 +6956,7 @@
         <v>20</v>
       </c>
       <c r="X76" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y76">
         <v>7.14</v>
@@ -6967,7 +6964,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
@@ -7036,7 +7033,7 @@
         <v>22</v>
       </c>
       <c r="X77" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y77">
         <v>8.32</v>
@@ -7044,7 +7041,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
@@ -7113,7 +7110,7 @@
         <v>21</v>
       </c>
       <c r="X78" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y78">
         <v>7.21</v>
@@ -7121,7 +7118,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
@@ -7190,7 +7187,7 @@
         <v>19</v>
       </c>
       <c r="X79" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y79">
         <v>7.93</v>
@@ -7198,7 +7195,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -7267,7 +7264,7 @@
         <v>24</v>
       </c>
       <c r="X80" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y80">
         <v>7.54</v>
@@ -7275,7 +7272,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -7344,7 +7341,7 @@
         <v>24</v>
       </c>
       <c r="X81" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y81">
         <v>8.75</v>
@@ -7352,7 +7349,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -7421,7 +7418,7 @@
         <v>21</v>
       </c>
       <c r="X82" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y82">
         <v>7.11</v>
@@ -7429,7 +7426,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
@@ -7498,15 +7495,15 @@
         <v>20</v>
       </c>
       <c r="X83" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
@@ -7575,7 +7572,7 @@
         <v>22</v>
       </c>
       <c r="X84" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y84">
         <v>6.68</v>
@@ -7583,7 +7580,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -7652,7 +7649,7 @@
         <v>23</v>
       </c>
       <c r="X85" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y85">
         <v>7.43</v>
@@ -7660,7 +7657,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86" s="4">
         <v>0</v>
@@ -7729,15 +7726,15 @@
         <v>22</v>
       </c>
       <c r="X86" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
@@ -7806,15 +7803,15 @@
         <v>21</v>
       </c>
       <c r="X87" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B88" s="4">
         <v>0</v>
@@ -7883,15 +7880,15 @@
         <v>20</v>
       </c>
       <c r="X88" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
@@ -7960,7 +7957,7 @@
         <v>24</v>
       </c>
       <c r="X89" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y89">
         <v>7.57</v>
@@ -7968,7 +7965,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -8037,7 +8034,7 @@
         <v>21</v>
       </c>
       <c r="X90" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y90">
         <v>7.93</v>
@@ -8045,7 +8042,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91" s="4">
         <v>0</v>
@@ -8114,15 +8111,15 @@
         <v>20</v>
       </c>
       <c r="X91" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -8191,15 +8188,15 @@
         <v>21</v>
       </c>
       <c r="X92" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -8268,7 +8265,7 @@
         <v>23</v>
       </c>
       <c r="X93" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y93">
         <v>6.64</v>
@@ -8276,7 +8273,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B94" s="4">
         <v>0</v>
@@ -8345,15 +8342,15 @@
         <v>20</v>
       </c>
       <c r="X94" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B95" s="4">
         <v>0</v>
@@ -8422,7 +8419,7 @@
         <v>24</v>
       </c>
       <c r="X95" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y95">
         <v>9.7100000000000009</v>
@@ -8430,7 +8427,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="4">
         <v>0</v>
@@ -8499,7 +8496,7 @@
         <v>20</v>
       </c>
       <c r="X96" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y96">
         <v>6.82</v>
@@ -8507,7 +8504,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -8576,7 +8573,7 @@
         <v>22</v>
       </c>
       <c r="X97" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y97">
         <v>6.68</v>
@@ -8584,7 +8581,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
@@ -8653,15 +8650,15 @@
         <v>21</v>
       </c>
       <c r="X98" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B99" s="4">
         <v>0</v>
@@ -8730,15 +8727,15 @@
         <v>19</v>
       </c>
       <c r="X99" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B100" s="4">
         <v>0</v>
@@ -8807,7 +8804,7 @@
         <v>23</v>
       </c>
       <c r="X100" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y100">
         <v>9.2899999999999991</v>
@@ -8815,7 +8812,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
@@ -8884,7 +8881,7 @@
         <v>22</v>
       </c>
       <c r="X101" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y101">
         <v>6.79</v>
@@ -8892,7 +8889,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B102" s="4">
         <v>0</v>
@@ -8961,7 +8958,7 @@
         <v>23</v>
       </c>
       <c r="X102" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y102">
         <v>7.36</v>
@@ -8969,7 +8966,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B103" s="4">
         <v>0</v>
@@ -9038,7 +9035,7 @@
         <v>24</v>
       </c>
       <c r="X103" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y103">
         <v>6.64</v>
@@ -9046,7 +9043,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B104" s="4">
         <v>0</v>
@@ -9115,7 +9112,7 @@
         <v>24</v>
       </c>
       <c r="X104" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y104">
         <v>7.82</v>
@@ -9123,7 +9120,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B105" s="4">
         <v>0</v>
@@ -9192,7 +9189,7 @@
         <v>22</v>
       </c>
       <c r="X105" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y105">
         <v>8.14</v>
@@ -9200,7 +9197,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B106" s="4">
         <v>0</v>
@@ -9269,15 +9266,15 @@
         <v>21</v>
       </c>
       <c r="X106" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107" s="4">
         <v>1</v>
@@ -9346,7 +9343,7 @@
         <v>24</v>
       </c>
       <c r="X107" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y107">
         <v>6.96</v>
@@ -9354,7 +9351,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B108" s="4">
         <v>0</v>
@@ -9423,15 +9420,15 @@
         <v>20</v>
       </c>
       <c r="X108" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B109" s="4">
         <v>0</v>
@@ -9500,7 +9497,7 @@
         <v>22</v>
       </c>
       <c r="X109" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y109">
         <v>7.5</v>
@@ -9508,7 +9505,7 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B110" s="4">
         <v>0</v>
@@ -9577,15 +9574,15 @@
         <v>20</v>
       </c>
       <c r="X110" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y110" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111" s="4">
         <v>0</v>
@@ -9654,15 +9651,15 @@
         <v>20</v>
       </c>
       <c r="X111" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B112" s="4">
         <v>0</v>
@@ -9731,7 +9728,7 @@
         <v>23</v>
       </c>
       <c r="X112" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y112">
         <v>7.36</v>
@@ -9739,7 +9736,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B113" s="4">
         <v>0</v>
@@ -9808,15 +9805,15 @@
         <v>22</v>
       </c>
       <c r="X113" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114" s="4">
         <v>0</v>
@@ -9885,15 +9882,15 @@
         <v>19</v>
       </c>
       <c r="X114" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y114" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115" s="4">
         <v>1</v>
@@ -9962,15 +9959,15 @@
         <v>21</v>
       </c>
       <c r="X115" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B116" s="4">
         <v>1</v>
@@ -10039,15 +10036,15 @@
         <v>22</v>
       </c>
       <c r="X116" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y116" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B117" s="4">
         <v>1</v>
@@ -10116,7 +10113,7 @@
         <v>22</v>
       </c>
       <c r="X117" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y117">
         <v>7.75</v>
@@ -10124,7 +10121,7 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B118" s="4">
         <v>0</v>
@@ -10193,7 +10190,7 @@
         <v>22</v>
       </c>
       <c r="X118" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y118">
         <v>7.18</v>
@@ -10201,7 +10198,7 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B119" s="4">
         <v>0</v>
@@ -10270,7 +10267,7 @@
         <v>22</v>
       </c>
       <c r="X119" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y119">
         <v>8.75</v>
@@ -10278,7 +10275,7 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B120" s="4">
         <v>1</v>
@@ -10347,7 +10344,7 @@
         <v>23</v>
       </c>
       <c r="X120" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y120">
         <v>7.07</v>
@@ -10355,7 +10352,7 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B121" s="4">
         <v>0</v>
@@ -10424,7 +10421,7 @@
         <v>24</v>
       </c>
       <c r="X121" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y121">
         <v>7.93</v>
@@ -10432,7 +10429,7 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B122" s="4">
         <v>1</v>
@@ -10501,15 +10498,15 @@
         <v>21</v>
       </c>
       <c r="X122" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y122" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B123" s="4">
         <v>1</v>
@@ -10578,15 +10575,15 @@
         <v>20</v>
       </c>
       <c r="X123" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B124" s="4">
         <v>0</v>
@@ -10655,7 +10652,7 @@
         <v>21</v>
       </c>
       <c r="X124" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y124">
         <v>7.07</v>
@@ -10663,7 +10660,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B125" s="4">
         <v>0</v>
@@ -10732,7 +10729,7 @@
         <v>22</v>
       </c>
       <c r="X125" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y125">
         <v>6.71</v>
@@ -10740,7 +10737,7 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B126" s="4">
         <v>1</v>
@@ -10809,7 +10806,7 @@
         <v>24</v>
       </c>
       <c r="X126" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y126">
         <v>9.43</v>
@@ -10817,7 +10814,7 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B127" s="4">
         <v>0</v>
@@ -10886,7 +10883,7 @@
         <v>20</v>
       </c>
       <c r="X127" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y127">
         <v>6.07</v>
@@ -10894,7 +10891,7 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B128" s="4">
         <v>0</v>
@@ -10963,7 +10960,7 @@
         <v>20</v>
       </c>
       <c r="X128" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y128">
         <v>5.93</v>
@@ -10971,7 +10968,7 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B129" s="4">
         <v>1</v>
@@ -11040,15 +11037,15 @@
         <v>22</v>
       </c>
       <c r="X129" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B130" s="4">
         <v>0</v>
@@ -11117,7 +11114,7 @@
         <v>20</v>
       </c>
       <c r="X130" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y130">
         <v>6.36</v>
@@ -11125,7 +11122,7 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B131" s="4">
         <v>1</v>
@@ -11194,7 +11191,7 @@
         <v>23</v>
       </c>
       <c r="X131" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y131">
         <v>9.5</v>
@@ -11202,7 +11199,7 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B132" s="4">
         <v>1</v>
@@ -11271,7 +11268,7 @@
         <v>24</v>
       </c>
       <c r="X132" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y132">
         <v>9.43</v>
@@ -11279,7 +11276,7 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" s="4">
         <v>1</v>
@@ -11348,15 +11345,15 @@
         <v>23</v>
       </c>
       <c r="X133" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y133" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B134" s="4">
         <v>1</v>
@@ -11425,7 +11422,7 @@
         <v>23</v>
       </c>
       <c r="X134" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y134">
         <v>9.07</v>
@@ -11433,7 +11430,7 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" s="4">
         <v>0</v>
@@ -11502,15 +11499,15 @@
         <v>20</v>
       </c>
       <c r="X135" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y135" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B136" s="4">
         <v>0</v>
@@ -11579,7 +11576,7 @@
         <v>23</v>
       </c>
       <c r="X136" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y136">
         <v>9.75</v>
@@ -11587,7 +11584,7 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B137" s="4">
         <v>0</v>
@@ -11656,7 +11653,7 @@
         <v>21</v>
       </c>
       <c r="X137" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y137">
         <v>8</v>
@@ -11664,7 +11661,7 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B138" s="4">
         <v>0</v>
@@ -11733,7 +11730,7 @@
         <v>23</v>
       </c>
       <c r="X138" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y138">
         <v>7.29</v>
@@ -11741,7 +11738,7 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B139" s="4">
         <v>0</v>
@@ -11810,15 +11807,15 @@
         <v>19</v>
       </c>
       <c r="X139" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y139" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" s="4">
         <v>0</v>
@@ -11887,15 +11884,15 @@
         <v>22</v>
       </c>
       <c r="X140" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y140" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B141" s="4">
         <v>0</v>
@@ -11964,7 +11961,7 @@
         <v>23</v>
       </c>
       <c r="X141" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y141">
         <v>6.93</v>
@@ -11972,7 +11969,7 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142" s="4">
         <v>0</v>
@@ -12041,7 +12038,7 @@
         <v>18</v>
       </c>
       <c r="X142" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y142">
         <v>6.93</v>
@@ -12049,7 +12046,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B143" s="4">
         <v>0</v>
@@ -12118,7 +12115,7 @@
         <v>22</v>
       </c>
       <c r="X143" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y143">
         <v>6.54</v>
@@ -12126,7 +12123,7 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144" s="4">
         <v>0</v>
@@ -12195,7 +12192,7 @@
         <v>20</v>
       </c>
       <c r="X144" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y144">
         <v>8.75</v>
@@ -12203,7 +12200,7 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" s="4">
         <v>0</v>
@@ -12272,7 +12269,7 @@
         <v>23</v>
       </c>
       <c r="X145" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y145">
         <v>8.86</v>
@@ -12280,7 +12277,7 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B146" s="4">
         <v>0</v>
@@ -12349,15 +12346,15 @@
         <v>23</v>
       </c>
       <c r="X146" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y146" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B147" s="4">
         <v>0</v>
@@ -12426,7 +12423,7 @@
         <v>23</v>
       </c>
       <c r="X147" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y147">
         <v>7.54</v>
@@ -12434,7 +12431,7 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B148" s="4">
         <v>0</v>
@@ -12503,7 +12500,7 @@
         <v>23</v>
       </c>
       <c r="X148" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y148">
         <v>8.0399999999999991</v>
@@ -12511,7 +12508,7 @@
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B149" s="4">
         <v>0</v>
@@ -12580,15 +12577,15 @@
         <v>21</v>
       </c>
       <c r="X149" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y149" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B150" s="4">
         <v>1</v>
@@ -12657,15 +12654,15 @@
         <v>19</v>
       </c>
       <c r="X150" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y150" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B151" s="4">
         <v>0</v>
@@ -12734,7 +12731,7 @@
         <v>21</v>
       </c>
       <c r="X151" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y151">
         <v>6.89</v>
@@ -12742,7 +12739,7 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B152" s="4">
         <v>0</v>
@@ -12811,7 +12808,7 @@
         <v>20</v>
       </c>
       <c r="X152" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y152">
         <v>5.14</v>
@@ -12819,7 +12816,7 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B153" s="4">
         <v>0</v>
@@ -12888,15 +12885,15 @@
         <v>20</v>
       </c>
       <c r="X153" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y153" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B154" s="4">
         <v>0</v>
@@ -12965,7 +12962,7 @@
         <v>23</v>
       </c>
       <c r="X154" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y154">
         <v>6.86</v>
@@ -12973,7 +12970,7 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B155" s="4">
         <v>0</v>
@@ -13042,15 +13039,15 @@
         <v>17</v>
       </c>
       <c r="X155" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y155" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B156" s="4">
         <v>0</v>
@@ -13119,15 +13116,15 @@
         <v>22</v>
       </c>
       <c r="X156" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y156" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B157" s="4">
         <v>0</v>
@@ -13196,15 +13193,15 @@
         <v>20</v>
       </c>
       <c r="X157" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y157" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B158" s="4">
         <v>0</v>
@@ -13273,7 +13270,7 @@
         <v>23</v>
       </c>
       <c r="X158" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y158">
         <v>7.11</v>
@@ -13281,7 +13278,7 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B159" s="4">
         <v>0</v>
@@ -13350,7 +13347,7 @@
         <v>23</v>
       </c>
       <c r="X159" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y159">
         <v>5.82</v>
@@ -13358,7 +13355,7 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B160" s="4">
         <v>0</v>
@@ -13427,7 +13424,7 @@
         <v>23</v>
       </c>
       <c r="X160" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y160">
         <v>6.21</v>
@@ -13435,7 +13432,7 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B161" s="4">
         <v>0</v>
@@ -13504,7 +13501,7 @@
         <v>21</v>
       </c>
       <c r="X161" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y161">
         <v>6.21</v>
@@ -13512,7 +13509,7 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B162" s="4">
         <v>0</v>
@@ -13581,15 +13578,15 @@
         <v>21</v>
       </c>
       <c r="X162" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y162" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B163" s="4">
         <v>0</v>
@@ -13658,7 +13655,7 @@
         <v>23</v>
       </c>
       <c r="X163" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y163">
         <v>6</v>
@@ -13666,7 +13663,7 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B164" s="4">
         <v>0</v>
@@ -13735,15 +13732,15 @@
         <v>21</v>
       </c>
       <c r="X164" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y164" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B165" s="4">
         <v>0</v>
@@ -13812,7 +13809,7 @@
         <v>23</v>
       </c>
       <c r="X165" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y165">
         <v>7.29</v>
@@ -13820,7 +13817,7 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B166" s="4">
         <v>0</v>
@@ -13889,7 +13886,7 @@
         <v>20</v>
       </c>
       <c r="X166" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y166">
         <v>6.25</v>
@@ -13897,7 +13894,7 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B167" s="4">
         <v>1</v>
@@ -13966,15 +13963,15 @@
         <v>24</v>
       </c>
       <c r="X167" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y167" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B168" s="4">
         <v>0</v>
@@ -14043,15 +14040,15 @@
         <v>20</v>
       </c>
       <c r="X168" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y168" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B169" s="4">
         <v>0</v>
@@ -14120,7 +14117,7 @@
         <v>23</v>
       </c>
       <c r="X169" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y169">
         <v>6.14</v>
@@ -14128,7 +14125,7 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B170" s="4">
         <v>1</v>
@@ -14197,7 +14194,7 @@
         <v>23</v>
       </c>
       <c r="X170" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y170">
         <v>7.54</v>
@@ -14205,7 +14202,7 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B171" s="4">
         <v>0</v>
@@ -14274,7 +14271,7 @@
         <v>20</v>
       </c>
       <c r="X171" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y171">
         <v>5.79</v>
@@ -14282,7 +14279,7 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B172" s="4">
         <v>0</v>
@@ -14351,7 +14348,7 @@
         <v>22</v>
       </c>
       <c r="X172" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y172">
         <v>5.86</v>
@@ -14359,7 +14356,7 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B173" s="4">
         <v>0</v>
@@ -14428,7 +14425,7 @@
         <v>23</v>
       </c>
       <c r="X173" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y173">
         <v>6.18</v>
@@ -14436,7 +14433,7 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B174" s="4">
         <v>0</v>
@@ -14505,7 +14502,7 @@
         <v>20</v>
       </c>
       <c r="X174" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y174">
         <v>5.5</v>
@@ -14513,7 +14510,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B175" s="4">
         <v>0</v>
@@ -14582,7 +14579,7 @@
         <v>21</v>
       </c>
       <c r="X175" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y175">
         <v>5.86</v>
@@ -14590,7 +14587,7 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B176" s="4">
         <v>1</v>
@@ -14659,7 +14656,7 @@
         <v>20</v>
       </c>
       <c r="X176" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y176">
         <v>7</v>
@@ -14667,7 +14664,7 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B177" s="4">
         <v>1</v>
@@ -14736,7 +14733,7 @@
         <v>23</v>
       </c>
       <c r="X177" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y177">
         <v>6.21</v>
@@ -14744,7 +14741,7 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B178" s="4">
         <v>0</v>
@@ -14813,15 +14810,15 @@
         <v>21</v>
       </c>
       <c r="X178" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y178" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B179" s="4">
         <v>1</v>
@@ -14890,7 +14887,7 @@
         <v>19</v>
       </c>
       <c r="X179" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y179">
         <v>5.89</v>
@@ -14898,7 +14895,7 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B180" s="4">
         <v>0</v>
@@ -14967,15 +14964,15 @@
         <v>21</v>
       </c>
       <c r="X180" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y180" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B181" s="4">
         <v>0</v>
@@ -15044,15 +15041,15 @@
         <v>20</v>
       </c>
       <c r="X181" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y181" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B182" s="4">
         <v>0</v>
@@ -15121,15 +15118,15 @@
         <v>19</v>
       </c>
       <c r="X182" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y182" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B183" s="4">
         <v>0</v>
@@ -15198,15 +15195,15 @@
         <v>17</v>
       </c>
       <c r="X183" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y183" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B184" s="4">
         <v>0</v>
@@ -15275,7 +15272,7 @@
         <v>23</v>
       </c>
       <c r="X184" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y184">
         <v>5.75</v>
@@ -15283,7 +15280,7 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B185" s="4">
         <v>0</v>
@@ -15352,15 +15349,15 @@
         <v>16</v>
       </c>
       <c r="X185" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y185" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B186" s="4">
         <v>0</v>
@@ -15429,15 +15426,15 @@
         <v>23</v>
       </c>
       <c r="X186" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y186" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B187" s="4">
         <v>1</v>
@@ -15506,7 +15503,7 @@
         <v>18</v>
       </c>
       <c r="X187" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y187">
         <v>6</v>
@@ -15514,7 +15511,7 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B188" s="4">
         <v>0</v>
@@ -15583,15 +15580,15 @@
         <v>19</v>
       </c>
       <c r="X188" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y188" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B189" s="4">
         <v>0</v>
@@ -15660,15 +15657,15 @@
         <v>21</v>
       </c>
       <c r="X189" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y189" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B190" s="4">
         <v>0</v>
@@ -15737,15 +15734,15 @@
         <v>21</v>
       </c>
       <c r="X190" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y190" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B191" s="4">
         <v>0</v>
@@ -15814,15 +15811,15 @@
         <v>16</v>
       </c>
       <c r="X191" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y191" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B192" s="4">
         <v>0</v>
@@ -15891,15 +15888,15 @@
         <v>23</v>
       </c>
       <c r="X192" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y192" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B193" s="4">
         <v>0</v>
@@ -15968,15 +15965,15 @@
         <v>18</v>
       </c>
       <c r="X193" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y193" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B194" s="4">
         <v>0</v>
@@ -16045,15 +16042,15 @@
         <v>22</v>
       </c>
       <c r="X194" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y194" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B195" s="4">
         <v>0</v>
@@ -16122,21 +16119,21 @@
         <v>23</v>
       </c>
       <c r="X195" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y195" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B196" s="4">
-        <v>0</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -16199,21 +16196,21 @@
         <v>19</v>
       </c>
       <c r="X196" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y196" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B197" s="4">
-        <v>0</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D197" s="1">
         <v>32</v>
@@ -16276,21 +16273,21 @@
         <v>19</v>
       </c>
       <c r="X197" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y197" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B198" s="4">
-        <v>0</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="D198" s="1">
         <v>11</v>
@@ -16353,10 +16350,10 @@
         <v>19</v>
       </c>
       <c r="X198" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y198" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
